--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1463230.151152473</v>
+        <v>1461907.587340538</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.033948784</v>
+        <v>5866991.033948782</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8288139.830041454</v>
+        <v>8288139.830041455</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.3686449586637</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>264.5090568165047</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -676,10 +676,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>35.23441885138202</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -837,7 +837,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.4216953850578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>65.73971447140534</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>70.30328547411254</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.7315525093737</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -1068,7 +1068,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>161.2283914498148</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>168.5072364741071</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>395.0742851230816</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>188.4607145364667</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1426,16 +1426,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3449400448986</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>300.4920170745502</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.42520756919177</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -1581,7 +1581,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>29.08694847912824</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1590,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>165.9184445944652</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>243.833185100996</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1824,16 +1824,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>262.2537570519889</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>101.6409518870423</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>208.933067249405</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -1912,7 +1912,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>46.07093373332733</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>272.819853597979</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.73179601342657</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>257.7677368882639</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>127.2691129752737</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -2253,7 +2253,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>19.50042337073144</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,16 +2329,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>190.1198520010243</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.4697473695408</v>
+        <v>177.7694914447167</v>
       </c>
       <c r="H23" t="n">
         <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
-        <v>78.88597920914971</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I24" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>93.86466007130814</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.51907652860963</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I26" t="n">
-        <v>78.88597920914971</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>254.4761865113606</v>
       </c>
       <c r="V26" t="n">
-        <v>119.6389231920607</v>
+        <v>119.6389231920598</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2654,7 +2654,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I27" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>13.67768813629938</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>51.27235049309357</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I29" t="n">
-        <v>78.88597920914971</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T29" t="n">
-        <v>122.5603156417023</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U29" t="n">
         <v>254.4761865113606</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>119.6389231920598</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2891,7 +2891,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I30" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>100.8195177398984</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>129.4033871859277</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I32" t="n">
-        <v>78.88597920914971</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I33" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>13.67378775891126</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V34" t="n">
-        <v>175.4109409505915</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3274,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>183.4965574034472</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3286,7 +3286,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I35" t="n">
-        <v>78.88597920914971</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>169.9367079279122</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3365,7 +3365,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I36" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>69.76512190206147</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>156.5352241230716</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3517,7 +3517,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.4697473695408</v>
+        <v>177.7694914447167</v>
       </c>
       <c r="H38" t="n">
         <v>306.0455584304623</v>
@@ -3556,7 +3556,7 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U38" t="n">
         <v>254.4761865113606</v>
@@ -3568,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>389.1714632083504</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3602,7 +3602,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>91.20100785160669</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>92.40963623864128</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3742,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>258.209068064187</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3760,7 +3760,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.234755280439</v>
+        <v>122.5603156417014</v>
       </c>
       <c r="U41" t="n">
         <v>254.4761865113606</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3906,19 +3906,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>246.7687429682859</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>105.0629767141853</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.41871194302</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -4033,7 +4033,7 @@
         <v>219.234755280439</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4761865113606</v>
+        <v>27.77593058653632</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>102.6837483351883</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>44.37130102800365</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1285.591565793852</v>
+        <v>741.1719557267563</v>
       </c>
       <c r="C2" t="n">
-        <v>875.4669751071217</v>
+        <v>331.0473650400264</v>
       </c>
       <c r="D2" t="n">
-        <v>471.0030452001823</v>
+        <v>330.623839173491</v>
       </c>
       <c r="E2" t="n">
-        <v>460.703233757483</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>443.7132257515746</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,10 +4333,10 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M2" t="n">
         <v>1726.536628995245</v>
@@ -4366,16 +4366,16 @@
         <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1603.135651610684</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>1603.135651610684</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>1603.135651610684</v>
+        <v>1552.329808443156</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.135651610684</v>
+        <v>1151.393135391246</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L3" t="n">
-        <v>690.384199457534</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.227134123859</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N3" t="n">
         <v>1571.411346813777</v>
@@ -4448,13 +4448,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>558.8443798601138</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>558.8443798601138</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>558.8443798601138</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U4" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="V4" t="n">
-        <v>1485.891263925851</v>
+        <v>1025.613750745284</v>
       </c>
       <c r="W4" t="n">
-        <v>1485.891263925851</v>
+        <v>746.5440862541582</v>
       </c>
       <c r="X4" t="n">
-        <v>1485.891263925851</v>
+        <v>746.5440862541582</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>746.5440862541582</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.4352462872621</v>
+        <v>538.3143133631511</v>
       </c>
       <c r="C5" t="n">
-        <v>534.3106556005322</v>
+        <v>128.1897226764212</v>
       </c>
       <c r="D5" t="n">
-        <v>129.8467256935927</v>
+        <v>127.7661968098858</v>
       </c>
       <c r="E5" t="n">
-        <v>63.44297370227418</v>
+        <v>117.4663853671865</v>
       </c>
       <c r="F5" t="n">
         <v>46.45296569636579</v>
@@ -4567,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1075.450954962253</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>1738.416726816583</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W5" t="n">
-        <v>1354.656425951752</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="X5" t="n">
-        <v>1354.656425951752</v>
+        <v>945.4317620391464</v>
       </c>
       <c r="Y5" t="n">
-        <v>1354.656425951752</v>
+        <v>544.4950889872365</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>704.7239474634683</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1221.566882129794</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129794</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,7 +4682,7 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
         <v>1196.626901649</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>865.1454348405214</v>
+        <v>1206.74893161785</v>
       </c>
       <c r="C7" t="n">
-        <v>694.0520624022379</v>
+        <v>1206.74893161785</v>
       </c>
       <c r="D7" t="n">
-        <v>534.5574177251478</v>
+        <v>1047.25428694076</v>
       </c>
       <c r="E7" t="n">
-        <v>373.6466025934674</v>
+        <v>886.3434718090796</v>
       </c>
       <c r="F7" t="n">
-        <v>209.0154767040586</v>
+        <v>721.7123459196708</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L7" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M7" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N7" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O7" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P7" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q7" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>2002.981563155502</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>2002.981563155502</v>
       </c>
       <c r="T7" t="n">
-        <v>1299.499495805762</v>
+        <v>1763.432824132204</v>
       </c>
       <c r="U7" t="n">
-        <v>1299.499495805762</v>
+        <v>1480.634676678328</v>
       </c>
       <c r="V7" t="n">
-        <v>1299.499495805762</v>
+        <v>1206.74893161785</v>
       </c>
       <c r="W7" t="n">
-        <v>1020.429831314636</v>
+        <v>1206.74893161785</v>
       </c>
       <c r="X7" t="n">
-        <v>1020.429831314636</v>
+        <v>1206.74893161785</v>
       </c>
       <c r="Y7" t="n">
-        <v>1020.429831314636</v>
+        <v>1206.74893161785</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1277.096428763703</v>
+        <v>1782.763876502378</v>
       </c>
       <c r="C8" t="n">
-        <v>866.9718380769729</v>
+        <v>1372.639285815648</v>
       </c>
       <c r="D8" t="n">
-        <v>462.5079081700334</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="E8" t="n">
-        <v>63.44297370227418</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4807,16 +4807,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O8" t="n">
         <v>2088.254281480102</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y8" t="n">
-        <v>1687.317608428192</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>158.3214934345126</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>158.3214934345126</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>675.1644281008379</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O9" t="n">
         <v>1192.007362767163</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V10" t="n">
-        <v>586.788251210945</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W10" t="n">
-        <v>307.7185867198193</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X10" t="n">
-        <v>307.7185867198193</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5074,13 +5074,13 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>4144.752941388363</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W11" t="n">
-        <v>3760.992640523532</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X11" t="n">
         <v>3360.349242692484</v>
@@ -5126,16 +5126,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>754.331869609911</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M12" t="n">
-        <v>754.331869609911</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N12" t="n">
-        <v>1578.027001052593</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>275.6758118380055</v>
+        <v>540.1777607016702</v>
       </c>
       <c r="C13" t="n">
-        <v>275.6758118380055</v>
+        <v>369.0843882633866</v>
       </c>
       <c r="D13" t="n">
-        <v>275.6758118380055</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E13" t="n">
-        <v>275.6758118380055</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F13" t="n">
-        <v>275.6758118380055</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G13" t="n">
-        <v>275.6758118380055</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H13" t="n">
         <v>209.5897435862967</v>
@@ -5229,22 +5229,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1321.597351827259</v>
       </c>
       <c r="U13" t="n">
-        <v>828.6312213896092</v>
+        <v>1038.799204373384</v>
       </c>
       <c r="V13" t="n">
-        <v>554.7454763291312</v>
+        <v>764.9134593129055</v>
       </c>
       <c r="W13" t="n">
-        <v>275.6758118380055</v>
+        <v>764.9134593129055</v>
       </c>
       <c r="X13" t="n">
-        <v>275.6758118380055</v>
+        <v>764.9134593129055</v>
       </c>
       <c r="Y13" t="n">
-        <v>275.6758118380055</v>
+        <v>540.1777607016702</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5293,7 +5293,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
         <v>4300.467232046283</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V14" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W14" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X14" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y14" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="15">
@@ -5460,25 +5460,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W16" t="n">
-        <v>275.6758118380055</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X16" t="n">
-        <v>93.2436976906228</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y16" t="n">
         <v>93.2436976906228</v>
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2134.851174492981</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1724.726583806251</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
         <v>1320.262653899312</v>
@@ -5518,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4559.51725636241</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4337.310772309269</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4080.250280568779</v>
+        <v>4093.653822999973</v>
       </c>
       <c r="V17" t="n">
-        <v>3730.41272590526</v>
+        <v>3743.816268336454</v>
       </c>
       <c r="W17" t="n">
-        <v>3346.652425040428</v>
+        <v>3360.055967471622</v>
       </c>
       <c r="X17" t="n">
-        <v>2946.009027209381</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y17" t="n">
-        <v>2545.072354157471</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5600,13 +5600,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>736.3215125965442</v>
+        <v>369.0843882633866</v>
       </c>
       <c r="C19" t="n">
-        <v>565.2281401582607</v>
+        <v>369.0843882633866</v>
       </c>
       <c r="D19" t="n">
-        <v>405.7334954811707</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E19" t="n">
-        <v>405.7334954811707</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F19" t="n">
-        <v>405.7334954811707</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H19" t="n">
         <v>209.5897435862967</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1436.250826191383</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U19" t="n">
-        <v>1436.250826191383</v>
+        <v>835.8537591485567</v>
       </c>
       <c r="V19" t="n">
-        <v>1162.365081130905</v>
+        <v>835.8537591485567</v>
       </c>
       <c r="W19" t="n">
-        <v>1162.365081130905</v>
+        <v>556.7840946574311</v>
       </c>
       <c r="X19" t="n">
-        <v>924.0212189905885</v>
+        <v>556.7840946574311</v>
       </c>
       <c r="Y19" t="n">
-        <v>924.0212189905885</v>
+        <v>556.7840946574311</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2151.931129920876</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583776</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K20" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.49866107141</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N20" t="n">
         <v>3127.679677710027</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4576.597211790305</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4354.390727737164</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4097.330235996674</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V20" t="n">
-        <v>3747.492681333154</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3363.732380468323</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2963.088982637275</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2562.152309585365</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.6240469015422</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="C22" t="n">
-        <v>745.5306744632587</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="D22" t="n">
-        <v>586.0360297861687</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E22" t="n">
-        <v>425.1252146544881</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
         <v>93.2436976906228</v>
@@ -5940,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1348.756849250995</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>1348.756849250995</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>1329.059451906822</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="Y22" t="n">
-        <v>1104.323753295587</v>
+        <v>547.3402982826956</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2315.763990092806</v>
+        <v>2315.763990092807</v>
       </c>
       <c r="C23" t="n">
-        <v>1905.639399406076</v>
+        <v>1905.639399406077</v>
       </c>
       <c r="D23" t="n">
-        <v>1501.175469499137</v>
+        <v>1501.175469499138</v>
       </c>
       <c r="E23" t="n">
         <v>1086.835254016034</v>
       </c>
       <c r="F23" t="n">
-        <v>894.7949994695443</v>
+        <v>665.804841969722</v>
       </c>
       <c r="G23" t="n">
         <v>486.2396990962708</v>
@@ -5986,13 +5986,13 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I23" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J23" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L23" t="n">
         <v>1665.067141547876</v>
@@ -6007,34 +6007,34 @@
         <v>3926.785084202961</v>
       </c>
       <c r="P23" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q23" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R23" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S23" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T23" t="n">
-        <v>4518.209749210382</v>
+        <v>4518.209749210383</v>
       </c>
       <c r="U23" t="n">
-        <v>4261.163096168604</v>
+        <v>4261.163096168605</v>
       </c>
       <c r="V23" t="n">
-        <v>3911.325541505085</v>
+        <v>3911.325541505086</v>
       </c>
       <c r="W23" t="n">
-        <v>3527.565240640253</v>
+        <v>3527.565240640254</v>
       </c>
       <c r="X23" t="n">
-        <v>3126.921842809206</v>
+        <v>3126.921842809207</v>
       </c>
       <c r="Y23" t="n">
-        <v>2725.985169757296</v>
+        <v>2725.985169757297</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I24" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J24" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K24" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L24" t="n">
-        <v>514.8469186904417</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M24" t="n">
-        <v>514.8469186904417</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N24" t="n">
-        <v>1412.097852308888</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O24" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P24" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q24" t="n">
         <v>2137.637783597812</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3598.209878992483</v>
+        <v>677.2693377557592</v>
       </c>
       <c r="C25" t="n">
-        <v>3427.1165065542</v>
+        <v>582.4565498049429</v>
       </c>
       <c r="D25" t="n">
-        <v>3427.1165065542</v>
+        <v>422.961905127853</v>
       </c>
       <c r="E25" t="n">
-        <v>3266.205691422519</v>
+        <v>262.0510899961724</v>
       </c>
       <c r="F25" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G25" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H25" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I25" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J25" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K25" t="n">
-        <v>3449.053008630018</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L25" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M25" t="n">
-        <v>4021.44203660462</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N25" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O25" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P25" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q25" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R25" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S25" t="n">
-        <v>4685.958698565579</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T25" t="n">
-        <v>4685.958698565579</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="U25" t="n">
-        <v>4403.164783541585</v>
+        <v>1419.418562998437</v>
       </c>
       <c r="V25" t="n">
-        <v>4129.279038481107</v>
+        <v>1419.418562998437</v>
       </c>
       <c r="W25" t="n">
-        <v>3850.209373989981</v>
+        <v>1140.348898507311</v>
       </c>
       <c r="X25" t="n">
-        <v>3611.865511849664</v>
+        <v>902.0050363669945</v>
       </c>
       <c r="Y25" t="n">
-        <v>3598.209878992483</v>
+        <v>677.2693377557592</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I26" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J26" t="n">
-        <v>365.9950463732503</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K26" t="n">
-        <v>925.7208439477955</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L26" t="n">
         <v>1665.067141547876</v>
@@ -6244,22 +6244,22 @@
         <v>3926.785084202961</v>
       </c>
       <c r="P26" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q26" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R26" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S26" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T26" t="n">
-        <v>4518.209749210383</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U26" t="n">
-        <v>4261.163096168605</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V26" t="n">
         <v>4140.315699004907</v>
@@ -6302,25 +6302,25 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I27" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J27" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="K27" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="L27" t="n">
-        <v>374.4252593630554</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="M27" t="n">
-        <v>1240.386849979366</v>
+        <v>833.069827347225</v>
       </c>
       <c r="N27" t="n">
-        <v>2137.637783597812</v>
+        <v>833.069827347225</v>
       </c>
       <c r="O27" t="n">
-        <v>2137.637783597812</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="P27" t="n">
         <v>2137.637783597812</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4352.438581429689</v>
+        <v>433.1444624344559</v>
       </c>
       <c r="C28" t="n">
-        <v>4181.345208991405</v>
+        <v>262.0510899961724</v>
       </c>
       <c r="D28" t="n">
-        <v>4021.850564314316</v>
+        <v>262.0510899961724</v>
       </c>
       <c r="E28" t="n">
-        <v>3860.939749182635</v>
+        <v>262.0510899961724</v>
       </c>
       <c r="F28" t="n">
-        <v>3696.308623293226</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G28" t="n">
-        <v>3529.135826766617</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H28" t="n">
-        <v>3380.218257642934</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I28" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J28" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K28" t="n">
-        <v>3449.053008630019</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L28" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M28" t="n">
-        <v>4021.442036604621</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N28" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O28" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P28" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q28" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R28" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S28" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T28" t="n">
-        <v>4870.998205338186</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U28" t="n">
-        <v>4870.998205338186</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="V28" t="n">
-        <v>4870.998205338186</v>
+        <v>1189.109534279456</v>
       </c>
       <c r="W28" t="n">
-        <v>4591.928540847061</v>
+        <v>910.0398697883304</v>
       </c>
       <c r="X28" t="n">
-        <v>4591.928540847061</v>
+        <v>671.6960076480138</v>
       </c>
       <c r="Y28" t="n">
-        <v>4540.138287823734</v>
+        <v>446.9603090367785</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I29" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J29" t="n">
         <v>365.9950463732503</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477959</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L29" t="n">
-        <v>1665.067141547877</v>
+        <v>1665.067141547876</v>
       </c>
       <c r="M29" t="n">
-        <v>2471.15571144551</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O29" t="n">
         <v>3926.785084202961</v>
@@ -6484,19 +6484,19 @@
         <v>4480.322041270214</v>
       </c>
       <c r="Q29" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R29" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S29" t="n">
-        <v>4870.998205338186</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T29" t="n">
-        <v>4747.199906710204</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U29" t="n">
-        <v>4490.153253668426</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V29" t="n">
         <v>4140.315699004907</v>
@@ -6539,22 +6539,22 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I30" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="K30" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="L30" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="M30" t="n">
-        <v>963.3815547230743</v>
+        <v>514.8469186904415</v>
       </c>
       <c r="N30" t="n">
-        <v>1860.632488341521</v>
+        <v>1412.097852308888</v>
       </c>
       <c r="O30" t="n">
         <v>2137.637783597812</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4220.21893819259</v>
+        <v>678.7634470527887</v>
       </c>
       <c r="C31" t="n">
-        <v>4049.125565754307</v>
+        <v>507.6700746145052</v>
       </c>
       <c r="D31" t="n">
-        <v>3889.630921077216</v>
+        <v>348.1754299374152</v>
       </c>
       <c r="E31" t="n">
-        <v>3728.720105945536</v>
+        <v>246.3375332304471</v>
       </c>
       <c r="F31" t="n">
-        <v>3564.088980056127</v>
+        <v>246.3375332304471</v>
       </c>
       <c r="G31" t="n">
-        <v>3396.916183529518</v>
+        <v>246.3375332304471</v>
       </c>
       <c r="H31" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I31" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J31" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K31" t="n">
-        <v>3449.053008630019</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L31" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M31" t="n">
-        <v>4021.442036604621</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N31" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O31" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P31" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q31" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R31" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S31" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T31" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="U31" t="n">
-        <v>4870.998205338186</v>
+        <v>1419.418562998437</v>
       </c>
       <c r="V31" t="n">
-        <v>4870.998205338186</v>
+        <v>1145.532817937959</v>
       </c>
       <c r="W31" t="n">
-        <v>4870.998205338186</v>
+        <v>866.4631534468331</v>
       </c>
       <c r="X31" t="n">
-        <v>4632.65434319787</v>
+        <v>866.4631534468331</v>
       </c>
       <c r="Y31" t="n">
-        <v>4407.918644586634</v>
+        <v>866.4631534468331</v>
       </c>
     </row>
     <row r="32">
@@ -6703,7 +6703,7 @@
         <v>365.9950463732503</v>
       </c>
       <c r="K32" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L32" t="n">
         <v>1665.067141547876</v>
@@ -6782,16 +6782,16 @@
         <v>97.41996410676373</v>
       </c>
       <c r="K33" t="n">
-        <v>152.2854781096761</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="L33" t="n">
-        <v>833.0698273472251</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="M33" t="n">
-        <v>833.0698273472251</v>
+        <v>833.069827347225</v>
       </c>
       <c r="N33" t="n">
-        <v>833.0698273472251</v>
+        <v>833.069827347225</v>
       </c>
       <c r="O33" t="n">
         <v>1558.609758636149</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>595.1807777487466</v>
+        <v>443.2360585039108</v>
       </c>
       <c r="C34" t="n">
-        <v>424.0874053104631</v>
+        <v>272.1426860656273</v>
       </c>
       <c r="D34" t="n">
-        <v>264.5927606333731</v>
+        <v>272.1426860656273</v>
       </c>
       <c r="E34" t="n">
-        <v>264.5927606333731</v>
+        <v>111.2318709339468</v>
       </c>
       <c r="F34" t="n">
-        <v>264.5927606333731</v>
+        <v>111.2318709339468</v>
       </c>
       <c r="G34" t="n">
-        <v>97.41996410676373</v>
+        <v>111.2318709339468</v>
       </c>
       <c r="H34" t="n">
-        <v>97.41996410676373</v>
+        <v>111.2318709339468</v>
       </c>
       <c r="I34" t="n">
         <v>97.41996410676373</v>
@@ -6870,13 +6870,13 @@
         <v>852.6563092888648</v>
       </c>
       <c r="N34" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O34" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P34" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q34" t="n">
         <v>1702.21247802243</v>
@@ -6888,22 +6888,22 @@
         <v>1702.21247802243</v>
       </c>
       <c r="T34" t="n">
-        <v>1702.21247802243</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U34" t="n">
-        <v>1702.21247802243</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V34" t="n">
-        <v>1525.029709385469</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W34" t="n">
-        <v>1245.960044894343</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="X34" t="n">
-        <v>1007.616182754026</v>
+        <v>667.9717571151461</v>
       </c>
       <c r="Y34" t="n">
-        <v>782.8804841427909</v>
+        <v>443.2360585039108</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2315.763990092806</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C35" t="n">
-        <v>1905.639399406076</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D35" t="n">
-        <v>1501.175469499137</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E35" t="n">
         <v>1315.825411515857</v>
@@ -6937,10 +6937,10 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J35" t="n">
-        <v>365.9950463732503</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K35" t="n">
-        <v>925.7208439477955</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L35" t="n">
         <v>1665.067141547876</v>
@@ -6949,10 +6949,10 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N35" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O35" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P35" t="n">
         <v>4480.322041270213</v>
@@ -6979,10 +6979,10 @@
         <v>3527.565240640253</v>
       </c>
       <c r="X35" t="n">
-        <v>3126.921842809206</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y35" t="n">
-        <v>2725.985169757296</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J36" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K36" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L36" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M36" t="n">
-        <v>963.3815547230743</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N36" t="n">
-        <v>1860.632488341521</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O36" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P36" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q36" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R36" t="n">
         <v>2137.637783597812</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3667.263528640985</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C37" t="n">
-        <v>3496.170156202701</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D37" t="n">
-        <v>3336.675511525611</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E37" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F37" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G37" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H37" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I37" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J37" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K37" t="n">
-        <v>3449.053008630018</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L37" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M37" t="n">
-        <v>4021.44203660462</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N37" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O37" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P37" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q37" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R37" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S37" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T37" t="n">
-        <v>4870.998205338185</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U37" t="n">
-        <v>4870.998205338185</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V37" t="n">
-        <v>4597.112460277707</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W37" t="n">
-        <v>4318.042795786581</v>
+        <v>748.1992312523601</v>
       </c>
       <c r="X37" t="n">
-        <v>4079.698933646265</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y37" t="n">
-        <v>3854.963235035029</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2544.754147592629</v>
+        <v>2315.763990092807</v>
       </c>
       <c r="C38" t="n">
-        <v>2134.629556905899</v>
+        <v>1905.639399406077</v>
       </c>
       <c r="D38" t="n">
-        <v>1730.16562699896</v>
+        <v>1501.175469499138</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.825411515857</v>
+        <v>1086.835254016034</v>
       </c>
       <c r="F38" t="n">
-        <v>894.7949994695443</v>
+        <v>665.804841969722</v>
       </c>
       <c r="G38" t="n">
         <v>486.2396990962708</v>
@@ -7171,10 +7171,10 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I38" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J38" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K38" t="n">
         <v>925.7208439477949</v>
@@ -7195,31 +7195,31 @@
         <v>4480.322041270214</v>
       </c>
       <c r="Q38" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R38" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S38" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T38" t="n">
-        <v>4739.658996968401</v>
+        <v>4518.209749210383</v>
       </c>
       <c r="U38" t="n">
-        <v>4482.612343926623</v>
+        <v>4261.163096168605</v>
       </c>
       <c r="V38" t="n">
-        <v>4132.774789263103</v>
+        <v>3911.325541505086</v>
       </c>
       <c r="W38" t="n">
-        <v>3749.014488398272</v>
+        <v>3527.565240640254</v>
       </c>
       <c r="X38" t="n">
-        <v>3355.912000309029</v>
+        <v>3126.921842809207</v>
       </c>
       <c r="Y38" t="n">
-        <v>2954.975327257119</v>
+        <v>2725.985169757297</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I39" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J39" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L39" t="n">
-        <v>374.4252593630554</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M39" t="n">
-        <v>1240.386849979366</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N39" t="n">
-        <v>2137.637783597812</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O39" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P39" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q39" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R39" t="n">
         <v>2137.637783597812</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>592.6391071115459</v>
+        <v>686.1775077192746</v>
       </c>
       <c r="C40" t="n">
-        <v>421.5457346732624</v>
+        <v>515.0841352809911</v>
       </c>
       <c r="D40" t="n">
-        <v>262.0510899961724</v>
+        <v>515.0841352809911</v>
       </c>
       <c r="E40" t="n">
-        <v>262.0510899961724</v>
+        <v>354.1733201493105</v>
       </c>
       <c r="F40" t="n">
-        <v>97.41996410676371</v>
+        <v>189.5421942599018</v>
       </c>
       <c r="G40" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H40" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I40" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J40" t="n">
         <v>116.8792779475706</v>
@@ -7356,28 +7356,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R40" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S40" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T40" t="n">
-        <v>1381.211494048537</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.417579024544</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="V40" t="n">
-        <v>1098.417579024544</v>
+        <v>1428.326732961952</v>
       </c>
       <c r="W40" t="n">
-        <v>1098.417579024544</v>
+        <v>1149.257068470826</v>
       </c>
       <c r="X40" t="n">
-        <v>1005.074512116826</v>
+        <v>910.9132063305099</v>
       </c>
       <c r="Y40" t="n">
-        <v>780.3388135055902</v>
+        <v>686.1775077192746</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2315.763990092806</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C41" t="n">
-        <v>2054.94674962393</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D41" t="n">
-        <v>1650.482819716991</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E41" t="n">
-        <v>1236.142604233887</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F41" t="n">
-        <v>815.1121921875749</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G41" t="n">
-        <v>406.5568918143014</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H41" t="n">
-        <v>97.41996410676371</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I41" t="n">
         <v>97.41996410676371</v>
       </c>
       <c r="J41" t="n">
-        <v>365.9950463732501</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K41" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L41" t="n">
         <v>1665.067141547876</v>
@@ -7426,37 +7426,37 @@
         <v>3254.588416372258</v>
       </c>
       <c r="O41" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P41" t="n">
         <v>4480.322041270214</v>
       </c>
       <c r="Q41" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R41" t="n">
         <v>4870.998205338185</v>
       </c>
       <c r="S41" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T41" t="n">
-        <v>4518.209749210382</v>
+        <v>4747.199906710204</v>
       </c>
       <c r="U41" t="n">
-        <v>4261.163096168604</v>
+        <v>4490.153253668426</v>
       </c>
       <c r="V41" t="n">
-        <v>3911.325541505085</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W41" t="n">
-        <v>3527.565240640253</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X41" t="n">
-        <v>3126.921842809206</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y41" t="n">
-        <v>2725.985169757296</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J42" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K42" t="n">
-        <v>567.8743197625565</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L42" t="n">
-        <v>567.8743197625565</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M42" t="n">
-        <v>878.962998472422</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N42" t="n">
-        <v>1776.213932090868</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O42" t="n">
-        <v>1776.213932090868</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P42" t="n">
-        <v>1776.213932090868</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q42" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R42" t="n">
         <v>2137.637783597812</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1183.652854113933</v>
+        <v>428.0079812221372</v>
       </c>
       <c r="C43" t="n">
-        <v>1012.55948167565</v>
+        <v>256.9146087838537</v>
       </c>
       <c r="D43" t="n">
-        <v>853.0648369985595</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E43" t="n">
-        <v>692.1540218668789</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F43" t="n">
-        <v>527.5228959774702</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G43" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H43" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I43" t="n">
         <v>97.41996410676371</v>
@@ -7602,19 +7602,19 @@
         <v>1702.21247802243</v>
       </c>
       <c r="U43" t="n">
-        <v>1702.21247802243</v>
+        <v>1419.418562998437</v>
       </c>
       <c r="V43" t="n">
-        <v>1702.21247802243</v>
+        <v>1170.157206464815</v>
       </c>
       <c r="W43" t="n">
-        <v>1702.21247802243</v>
+        <v>891.087541973689</v>
       </c>
       <c r="X43" t="n">
-        <v>1596.088259119213</v>
+        <v>652.7436798333724</v>
       </c>
       <c r="Y43" t="n">
-        <v>1371.352560507977</v>
+        <v>428.0079812221372</v>
       </c>
     </row>
     <row r="44">
@@ -7681,19 +7681,19 @@
         <v>4518.209749210382</v>
       </c>
       <c r="U44" t="n">
-        <v>4261.163096168604</v>
+        <v>4490.153253668426</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.325541505085</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W44" t="n">
-        <v>3527.565240640253</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X44" t="n">
-        <v>3126.921842809206</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y44" t="n">
-        <v>2725.985169757296</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>97.41996410676371</v>
       </c>
       <c r="K45" t="n">
-        <v>97.41996410676371</v>
+        <v>369.8896515643952</v>
       </c>
       <c r="L45" t="n">
-        <v>97.41996410676371</v>
+        <v>1050.674000801944</v>
       </c>
       <c r="M45" t="n">
-        <v>963.3815547230743</v>
+        <v>1050.674000801944</v>
       </c>
       <c r="N45" t="n">
-        <v>1860.632488341521</v>
+        <v>1050.674000801944</v>
       </c>
       <c r="O45" t="n">
-        <v>1860.632488341521</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="P45" t="n">
-        <v>1860.632488341521</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q45" t="n">
         <v>2137.637783597812</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>735.7576125541167</v>
+        <v>582.4565498049429</v>
       </c>
       <c r="C46" t="n">
-        <v>564.6642401158332</v>
+        <v>582.4565498049429</v>
       </c>
       <c r="D46" t="n">
-        <v>405.1695954387432</v>
+        <v>422.961905127853</v>
       </c>
       <c r="E46" t="n">
-        <v>405.1695954387432</v>
+        <v>262.0510899961724</v>
       </c>
       <c r="F46" t="n">
-        <v>405.1695954387432</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G46" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H46" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I46" t="n">
         <v>97.41996410676371</v>
@@ -7833,25 +7833,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S46" t="n">
-        <v>1517.172971249823</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T46" t="n">
-        <v>1517.172971249823</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="U46" t="n">
-        <v>1234.37905622583</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="V46" t="n">
-        <v>960.493311165352</v>
+        <v>1428.326732961952</v>
       </c>
       <c r="W46" t="n">
-        <v>960.493311165352</v>
+        <v>1149.257068470826</v>
       </c>
       <c r="X46" t="n">
-        <v>960.493311165352</v>
+        <v>910.9132063305099</v>
       </c>
       <c r="Y46" t="n">
-        <v>735.7576125541167</v>
+        <v>686.1775077192746</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>494.1995199774884</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
@@ -8060,16 +8060,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>362.035413379455</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>421.0562344946771</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
@@ -8224,19 +8224,19 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O5" t="n">
-        <v>553.1935596277625</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8294,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>265.3595799407153</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491204</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8318,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
@@ -8467,7 +8467,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8531,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>173.8482690683344</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491204</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
@@ -8774,19 +8774,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>885.2086776792871</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -9248,16 +9248,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.7123159585636</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>457.8627836749068</v>
+        <v>36.21939520654516</v>
       </c>
       <c r="M24" t="n">
-        <v>34.34760704978731</v>
+        <v>34.34760704978727</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654937</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>468.201514806024</v>
       </c>
       <c r="P24" t="n">
-        <v>36.76253149458879</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.99626817861592</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>53.3111688958806</v>
+        <v>53.31116889588059</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.7123159585636</v>
+        <v>42.71231595856359</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421734</v>
+        <v>41.02972279421732</v>
       </c>
       <c r="L27" t="n">
-        <v>316.022723748254</v>
+        <v>36.21939520654516</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>777.4282769896472</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654937</v>
       </c>
       <c r="O27" t="n">
-        <v>35.95062976461627</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>36.76253149458879</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.99626817861592</v>
+        <v>44.9962681786159</v>
       </c>
       <c r="R27" t="n">
-        <v>53.3111688958806</v>
+        <v>53.31116889588059</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.7123159585636</v>
+        <v>42.71231595856359</v>
       </c>
       <c r="K30" t="n">
-        <v>41.02972279421734</v>
+        <v>41.02972279421732</v>
       </c>
       <c r="L30" t="n">
-        <v>36.21939520654519</v>
+        <v>36.21939520654516</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>455.9909955181487</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>315.753958306325</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>36.76253149458879</v>
+        <v>36.76253149458876</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.99626817861592</v>
+        <v>44.9962681786159</v>
       </c>
       <c r="R30" t="n">
-        <v>53.3111688958806</v>
+        <v>53.31116889588059</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.7123159585636</v>
+        <v>42.71231595856359</v>
       </c>
       <c r="K33" t="n">
-        <v>96.44943390827024</v>
+        <v>41.02972279421732</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>36.21939520654516</v>
       </c>
       <c r="M33" t="n">
-        <v>34.34760704978731</v>
+        <v>777.4282769896472</v>
       </c>
       <c r="N33" t="n">
-        <v>29.36224035654941</v>
+        <v>29.36224035654937</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
@@ -10448,10 +10448,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.99626817861592</v>
+        <v>44.9962681786159</v>
       </c>
       <c r="R33" t="n">
-        <v>53.3111688958806</v>
+        <v>53.31116889588059</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>42.7123159585636</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>36.21939520654519</v>
+        <v>36.21939520654516</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978727</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654937</v>
       </c>
       <c r="O36" t="n">
-        <v>315.753958306325</v>
+        <v>432.6543842302063</v>
       </c>
       <c r="P36" t="n">
-        <v>36.76253149458879</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861592</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>316.022723748254</v>
+        <v>36.21939520654516</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978727</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654937</v>
       </c>
       <c r="O39" t="n">
-        <v>35.95062976461625</v>
+        <v>432.6543842302063</v>
       </c>
       <c r="P39" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920609</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>36.21939520654517</v>
+        <v>36.21939520654516</v>
       </c>
       <c r="M42" t="n">
-        <v>348.578595645611</v>
+        <v>34.34760704978728</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654939</v>
       </c>
       <c r="O42" t="n">
-        <v>35.95062976461625</v>
+        <v>432.6543842302063</v>
       </c>
       <c r="P42" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,28 +11378,28 @@
         <v>42.71231595856359</v>
       </c>
       <c r="K45" t="n">
-        <v>41.02972279421733</v>
+        <v>316.2516293170774</v>
       </c>
       <c r="L45" t="n">
-        <v>36.21939520654517</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978728</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654939</v>
       </c>
       <c r="O45" t="n">
-        <v>35.95062976461625</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
         <v>36.76253149458877</v>
       </c>
       <c r="Q45" t="n">
-        <v>324.7995967203247</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>53.3111688958806</v>
+        <v>53.31116889588059</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>187.9942390719855</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>96.14494677818681</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
@@ -23433,7 +23433,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>82.68617307340614</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>208.0663031539367</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>54.06597461814459</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>32.28731256679784</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>45.55681957368</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>119.5069534303847</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>7.150312381358106</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>49.19646844041357</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>88.57144222862024</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>58.55359635483028</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24180,22 +24180,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>216.460000148182</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>226.700255924825</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>226.7002559248241</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>75.51777864259252</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5010685613433</v>
@@ -24414,7 +24414,7 @@
         <v>80.9659474384828</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T25" t="n">
         <v>236.8250266956711</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.9692650965133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>226.7002559248234</v>
+        <v>226.7002559248243</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>172.1450211938046</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>183.1891117048806</v>
       </c>
       <c r="T28" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.2159911320294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>96.67443963873666</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>226.7002559248243</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>58.48218924046533</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H31" t="n">
-        <v>18.02500624651893</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>112.8724405582094</v>
@@ -24894,19 +24894,19 @@
         <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H34" t="n">
         <v>147.4283934324466</v>
       </c>
       <c r="I34" t="n">
-        <v>112.8724405582094</v>
+        <v>99.19865279929815</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>95.73594665928178</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>226.700255924825</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>226.7002559248248</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>89.53658507830225</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25365,16 +25365,16 @@
         <v>183.1891117048806</v>
       </c>
       <c r="T37" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>119.7437437231427</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>226.7002559248241</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.234755280439</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>7.465500644386623</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5010685613433</v>
+        <v>74.30006070973657</v>
       </c>
       <c r="H40" t="n">
         <v>147.4283934324466</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S40" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>143.5507872802722</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>147.8142767156756</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>96.67443963873755</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>236.8250266956711</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>24.37814464158737</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>130.8974468047281</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>226.7002559248245</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>226.7002559248242</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>83.13896099491565</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>121.1297675333396</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>80.9659474384828</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
         <v>236.8250266956711</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>696625.6766652127</v>
+        <v>696625.6766652126</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>715772.6171879896</v>
+        <v>715772.6171879898</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>715772.6171879896</v>
+        <v>715772.6171879898</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>715772.6171879896</v>
+        <v>715772.6171879898</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>715772.6171879896</v>
+        <v>715772.6171879898</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>715772.6171879896</v>
+        <v>715772.6171879898</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>456070.7004908794</v>
       </c>
       <c r="E2" t="n">
-        <v>405508.1345491314</v>
+        <v>405508.1345491313</v>
       </c>
       <c r="F2" t="n">
-        <v>405508.1345491314</v>
+        <v>405508.1345491313</v>
       </c>
       <c r="G2" t="n">
-        <v>405508.1345491314</v>
+        <v>405508.134549131</v>
       </c>
       <c r="H2" t="n">
         <v>405508.1345491312</v>
       </c>
       <c r="I2" t="n">
+        <v>418923.2369159919</v>
+      </c>
+      <c r="J2" t="n">
+        <v>418923.2369159919</v>
+      </c>
+      <c r="K2" t="n">
         <v>418923.2369159918</v>
       </c>
-      <c r="J2" t="n">
-        <v>418923.2369159916</v>
-      </c>
-      <c r="K2" t="n">
-        <v>418923.2369159917</v>
-      </c>
       <c r="L2" t="n">
-        <v>418923.2369159916</v>
+        <v>418923.236915992</v>
       </c>
       <c r="M2" t="n">
-        <v>418923.2369159915</v>
+        <v>418923.2369159918</v>
       </c>
       <c r="N2" t="n">
-        <v>418923.2369159915</v>
+        <v>418923.2369159918</v>
       </c>
       <c r="O2" t="n">
-        <v>418923.2369159921</v>
+        <v>418923.236915992</v>
       </c>
       <c r="P2" t="n">
-        <v>418923.236915992</v>
+        <v>418923.2369159918</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588483</v>
+        <v>45948.6226158848</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26438,22 +26438,22 @@
         <v>89101.60277166063</v>
       </c>
       <c r="I4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="J4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="K4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="L4" t="n">
         <v>88152.90891079398</v>
       </c>
       <c r="M4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="N4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="O4" t="n">
         <v>88152.90891079398</v>
@@ -26490,13 +26490,13 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
+        <v>74967.83978868564</v>
+      </c>
+      <c r="J5" t="n">
         <v>74967.83978868563</v>
       </c>
-      <c r="J5" t="n">
-        <v>74967.83978868564</v>
-      </c>
       <c r="K5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868563</v>
       </c>
       <c r="L5" t="n">
         <v>74967.83978868564</v>
@@ -26505,7 +26505,7 @@
         <v>74967.83978868563</v>
       </c>
       <c r="N5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="O5" t="n">
         <v>74967.83978868563</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2686.579239676765</v>
+        <v>2686.579239676728</v>
       </c>
       <c r="C6" t="n">
-        <v>177642.0891327908</v>
+        <v>177642.0891327907</v>
       </c>
       <c r="D6" t="n">
         <v>177642.0891327908</v>
       </c>
       <c r="E6" t="n">
-        <v>53411.55863315432</v>
+        <v>53230.97804050503</v>
       </c>
       <c r="F6" t="n">
-        <v>245541.3215325974</v>
+        <v>245360.7409399483</v>
       </c>
       <c r="G6" t="n">
-        <v>245541.3215325974</v>
+        <v>245360.740939948</v>
       </c>
       <c r="H6" t="n">
-        <v>245541.3215325972</v>
+        <v>245360.7409399481</v>
       </c>
       <c r="I6" t="n">
-        <v>209853.8656006273</v>
+        <v>209721.1960878601</v>
       </c>
       <c r="J6" t="n">
-        <v>119207.687410617</v>
+        <v>119075.0178978499</v>
       </c>
       <c r="K6" t="n">
-        <v>255802.4882165121</v>
+        <v>255669.8187037447</v>
       </c>
       <c r="L6" t="n">
-        <v>255802.4882165121</v>
+        <v>255669.8187037449</v>
       </c>
       <c r="M6" t="n">
-        <v>95444.03771582933</v>
+        <v>95311.36820306211</v>
       </c>
       <c r="N6" t="n">
-        <v>255802.4882165118</v>
+        <v>255669.8187037447</v>
       </c>
       <c r="O6" t="n">
-        <v>255802.4882165125</v>
+        <v>255669.818703745</v>
       </c>
       <c r="P6" t="n">
-        <v>255802.4882165124</v>
+        <v>255669.8187037447</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812866</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812866</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812866</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812866</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812866</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="N3" t="n">
-        <v>42.5994067681287</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="O3" t="n">
-        <v>42.5994067681287</v>
+        <v>42.59940676812871</v>
       </c>
       <c r="P3" t="n">
-        <v>42.5994067681287</v>
+        <v>42.59940676812871</v>
       </c>
     </row>
     <row r="4">
@@ -26810,13 +26810,13 @@
         <v>1165.546221132785</v>
       </c>
       <c r="I4" t="n">
+        <v>1217.749551334547</v>
+      </c>
+      <c r="J4" t="n">
         <v>1217.749551334546</v>
       </c>
-      <c r="J4" t="n">
-        <v>1217.749551334547</v>
-      </c>
       <c r="K4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="L4" t="n">
         <v>1217.749551334547</v>
@@ -26825,7 +26825,7 @@
         <v>1217.749551334546</v>
       </c>
       <c r="N4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="O4" t="n">
         <v>1217.749551334546</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812885</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.20333020176145</v>
+        <v>52.20333020176167</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700258</v>
+        <v>522.0635703700253</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.482650762759</v>
+        <v>643.4826507627591</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91.75032290918091</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>145.6877565117676</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>124.0672881289817</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -27596,16 +27596,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>57.06664624006515</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>344.4570988568669</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>346.5168224517367</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.09115682073028</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4.349495713897255</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -27824,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>237.6117313937374</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>15.12252820519063</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -27921,7 +27921,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28028,10 +28028,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>82.68617307340654</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.171253896555291</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096874</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947861</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J23" t="n">
-        <v>14.53496040275964</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394511</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L23" t="n">
-        <v>27.0251492806491</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351426</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N23" t="n">
-        <v>30.55726089710198</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O23" t="n">
-        <v>28.8543549632303</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202155</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163519</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R23" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949132</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753697</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707865</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106919</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284842</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017076</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436412</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039805</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430386</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863012</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N24" t="n">
-        <v>23.83115303720058</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538373</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821496</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524807</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S24" t="n">
-        <v>1.701966864745517</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557568</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006028217938886134</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875659</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513091</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507699</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471091</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388264</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944223</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N25" t="n">
-        <v>11.75534121521164</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O25" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935845</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035793</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987427</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871545</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S25" t="n">
-        <v>1.338738734008239</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937781</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004190105583750364</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.171253896555291</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096874</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947861</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J26" t="n">
-        <v>14.53496040275964</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394511</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L26" t="n">
-        <v>27.0251492806491</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351426</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N26" t="n">
-        <v>30.55726089710198</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O26" t="n">
-        <v>28.8543549632303</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202155</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163519</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R26" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949132</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753697</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707865</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106919</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284842</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017076</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436412</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039805</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430386</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863012</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N27" t="n">
-        <v>23.83115303720058</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538373</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821496</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524807</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S27" t="n">
-        <v>1.701966864745517</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557568</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006028217938886134</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875659</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513091</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507699</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471091</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388264</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944223</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N28" t="n">
-        <v>11.75534121521164</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O28" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935845</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035793</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987427</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871545</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S28" t="n">
-        <v>1.338738734008239</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937781</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004190105583750364</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.171253896555291</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096874</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947861</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J29" t="n">
-        <v>14.53496040275964</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394511</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L29" t="n">
-        <v>27.0251492806491</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351426</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N29" t="n">
-        <v>30.55726089710198</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O29" t="n">
-        <v>28.8543549632303</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202155</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163519</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R29" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949132</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753697</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707865</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106919</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284842</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017076</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436412</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039805</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430386</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863012</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N30" t="n">
-        <v>23.83115303720058</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538373</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821496</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524807</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S30" t="n">
-        <v>1.701966864745517</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557568</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006028217938886134</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875659</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513091</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507699</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471091</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388264</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944223</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N31" t="n">
-        <v>11.75534121521164</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O31" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935845</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035793</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987427</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871545</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S31" t="n">
-        <v>1.338738734008239</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937781</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004190105583750364</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.171253896555291</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096874</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947861</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J32" t="n">
-        <v>14.53496040275964</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394511</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L32" t="n">
-        <v>27.0251492806491</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351426</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N32" t="n">
-        <v>30.55726089710198</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O32" t="n">
-        <v>28.8543549632303</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202155</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163519</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R32" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949132</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753697</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707865</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106919</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284842</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017076</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436412</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039805</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430386</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863012</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N33" t="n">
-        <v>23.83115303720058</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538373</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821496</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524807</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S33" t="n">
-        <v>1.701966864745517</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557568</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006028217938886134</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875659</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513091</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507699</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471091</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388264</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944223</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N34" t="n">
-        <v>11.75534121521164</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O34" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935845</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035793</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987427</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871545</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S34" t="n">
-        <v>1.338738734008239</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937781</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004190105583750364</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.171253896555291</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096874</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947861</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J35" t="n">
-        <v>14.53496040275964</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394511</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L35" t="n">
-        <v>27.0251492806491</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351426</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N35" t="n">
-        <v>30.55726089710198</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O35" t="n">
-        <v>28.8543549632303</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202155</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163519</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R35" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949132</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753697</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707865</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106919</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284842</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017076</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436412</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039805</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430386</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863012</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N36" t="n">
-        <v>23.83115303720058</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538373</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821496</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524807</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S36" t="n">
-        <v>1.701966864745517</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557568</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006028217938886134</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875659</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513091</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507699</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471091</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388264</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944223</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N37" t="n">
-        <v>11.75534121521164</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O37" t="n">
-        <v>10.85796026935844</v>
+        <v>10.85796026935845</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035793</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987427</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871545</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S37" t="n">
-        <v>1.338738734008239</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937781</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004190105583750364</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947867</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J38" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394513</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N38" t="n">
-        <v>30.55726089710201</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323033</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P38" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.49349422163521</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R38" t="n">
         <v>10.75752757949132</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707873</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106929</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284851</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J39" t="n">
-        <v>8.656922841436421</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430388</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N39" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524812</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745518</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557572</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U39" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875666</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513098</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471096</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388273</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L40" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O40" t="n">
         <v>10.85796026935845</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987434</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S40" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004190105583750369</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,19 +34122,19 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H41" t="n">
         <v>1.753853968096876</v>
       </c>
       <c r="I41" t="n">
-        <v>6.602265846947867</v>
+        <v>6.602265846947869</v>
       </c>
       <c r="J41" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K41" t="n">
-        <v>21.78413784394513</v>
+        <v>21.78413784394514</v>
       </c>
       <c r="L41" t="n">
         <v>27.02514928064913</v>
@@ -34143,10 +34143,10 @@
         <v>30.07068576351429</v>
       </c>
       <c r="N41" t="n">
-        <v>30.55726089710201</v>
+        <v>30.55726089710202</v>
       </c>
       <c r="O41" t="n">
-        <v>28.85435496323033</v>
+        <v>28.85435496323034</v>
       </c>
       <c r="P41" t="n">
         <v>24.62652439202158</v>
@@ -34161,7 +34161,7 @@
         <v>3.902448167753701</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7496639321707873</v>
+        <v>0.7496639321707874</v>
       </c>
       <c r="U41" t="n">
         <v>0.01370031172442329</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09162891267106929</v>
+        <v>0.0916289126710693</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8849423934284851</v>
+        <v>0.8849423934284852</v>
       </c>
       <c r="I42" t="n">
         <v>3.154767388017079</v>
@@ -34216,13 +34216,13 @@
         <v>14.79605999039806</v>
       </c>
       <c r="L42" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430389</v>
       </c>
       <c r="M42" t="n">
         <v>23.21667668863014</v>
       </c>
       <c r="N42" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720061</v>
       </c>
       <c r="O42" t="n">
         <v>21.80084923538375</v>
@@ -34234,13 +34234,13 @@
         <v>11.69635032622281</v>
       </c>
       <c r="R42" t="n">
-        <v>5.689030209524812</v>
+        <v>5.689030209524813</v>
       </c>
       <c r="S42" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745519</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3693288190557572</v>
+        <v>0.3693288190557573</v>
       </c>
       <c r="U42" t="n">
         <v>0.00602821793888614</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07681860236875666</v>
+        <v>0.07681860236875668</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6829872101513098</v>
+        <v>0.6829872101513099</v>
       </c>
       <c r="I43" t="n">
         <v>2.310144878507701</v>
       </c>
       <c r="J43" t="n">
-        <v>5.431075187471096</v>
+        <v>5.431075187471097</v>
       </c>
       <c r="K43" t="n">
-        <v>8.924924893388273</v>
+        <v>8.924924893388274</v>
       </c>
       <c r="L43" t="n">
         <v>11.42083111944224</v>
@@ -34301,7 +34301,7 @@
         <v>12.04166509676792</v>
       </c>
       <c r="N43" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O43" t="n">
         <v>10.85796026935845</v>
@@ -34310,7 +34310,7 @@
         <v>9.290860781035803</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.432510421987434</v>
+        <v>6.432510421987435</v>
       </c>
       <c r="R43" t="n">
         <v>3.454043702871549</v>
@@ -34322,7 +34322,7 @@
         <v>0.3282249373937784</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004190105583750369</v>
+        <v>0.00419010558375037</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,19 +34359,19 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H44" t="n">
         <v>1.753853968096876</v>
       </c>
       <c r="I44" t="n">
-        <v>6.602265846947867</v>
+        <v>6.602265846947869</v>
       </c>
       <c r="J44" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K44" t="n">
-        <v>21.78413784394513</v>
+        <v>21.78413784394514</v>
       </c>
       <c r="L44" t="n">
         <v>27.02514928064913</v>
@@ -34380,10 +34380,10 @@
         <v>30.07068576351429</v>
       </c>
       <c r="N44" t="n">
-        <v>30.55726089710201</v>
+        <v>30.55726089710202</v>
       </c>
       <c r="O44" t="n">
-        <v>28.85435496323033</v>
+        <v>28.85435496323034</v>
       </c>
       <c r="P44" t="n">
         <v>24.62652439202158</v>
@@ -34398,7 +34398,7 @@
         <v>3.902448167753701</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7496639321707873</v>
+        <v>0.7496639321707874</v>
       </c>
       <c r="U44" t="n">
         <v>0.01370031172442329</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09162891267106929</v>
+        <v>0.0916289126710693</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8849423934284851</v>
+        <v>0.8849423934284852</v>
       </c>
       <c r="I45" t="n">
         <v>3.154767388017079</v>
@@ -34453,13 +34453,13 @@
         <v>14.79605999039806</v>
       </c>
       <c r="L45" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430389</v>
       </c>
       <c r="M45" t="n">
         <v>23.21667668863014</v>
       </c>
       <c r="N45" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720061</v>
       </c>
       <c r="O45" t="n">
         <v>21.80084923538375</v>
@@ -34471,13 +34471,13 @@
         <v>11.69635032622281</v>
       </c>
       <c r="R45" t="n">
-        <v>5.689030209524812</v>
+        <v>5.689030209524813</v>
       </c>
       <c r="S45" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745519</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3693288190557572</v>
+        <v>0.3693288190557573</v>
       </c>
       <c r="U45" t="n">
         <v>0.00602821793888614</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07681860236875666</v>
+        <v>0.07681860236875668</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6829872101513098</v>
+        <v>0.6829872101513099</v>
       </c>
       <c r="I46" t="n">
         <v>2.310144878507701</v>
       </c>
       <c r="J46" t="n">
-        <v>5.431075187471096</v>
+        <v>5.431075187471097</v>
       </c>
       <c r="K46" t="n">
-        <v>8.924924893388273</v>
+        <v>8.924924893388274</v>
       </c>
       <c r="L46" t="n">
         <v>11.42083111944224</v>
@@ -34538,7 +34538,7 @@
         <v>12.04166509676792</v>
       </c>
       <c r="N46" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O46" t="n">
         <v>10.85796026935845</v>
@@ -34547,7 +34547,7 @@
         <v>9.290860781035803</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.432510421987434</v>
+        <v>6.432510421987435</v>
       </c>
       <c r="R46" t="n">
         <v>3.454043702871549</v>
@@ -34559,7 +34559,7 @@
         <v>0.3282249373937784</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004190105583750369</v>
+        <v>0.00419010558375037</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,13 +34701,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>367.8628411009271</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
@@ -34944,19 +34944,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="O5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>209.2450561298663</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35038,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
@@ -35187,7 +35187,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>117.7337452574854</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>832.0152842855372</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36126,19 +36126,19 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7892927396342</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209635</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955736</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990957</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
-        <v>534.5017150698499</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K23" t="n">
         <v>565.3795935096416</v>
@@ -36366,10 +36366,10 @@
         <v>746.8144420202834</v>
       </c>
       <c r="M23" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N23" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O23" t="n">
         <v>678.9865331623262</v>
@@ -36381,7 +36381,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682952</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L24" t="n">
-        <v>421.6433884683616</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>732.8686174635598</v>
+        <v>432.2508850414078</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K25" t="n">
         <v>165.0383872390832</v>
@@ -36536,7 +36536,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K26" t="n">
         <v>565.3795935096416</v>
@@ -36603,10 +36603,10 @@
         <v>746.8144420202834</v>
       </c>
       <c r="M26" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N26" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O26" t="n">
         <v>678.9865331623262</v>
@@ -36618,7 +36618,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682952</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>874.7086773902126</v>
+        <v>743.0806699398599</v>
       </c>
       <c r="N27" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>732.8686174635599</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K28" t="n">
         <v>165.0383872390832</v>
@@ -36773,7 +36773,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K29" t="n">
         <v>565.3795935096416</v>
@@ -36840,10 +36840,10 @@
         <v>746.8144420202834</v>
       </c>
       <c r="M29" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N29" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O29" t="n">
         <v>678.9865331623262</v>
@@ -36855,7 +36855,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682952</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>874.7086773902126</v>
+        <v>421.6433884683614</v>
       </c>
       <c r="N30" t="n">
         <v>906.3140743620671</v>
       </c>
       <c r="O30" t="n">
-        <v>279.8033285417088</v>
+        <v>732.8686174635599</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K31" t="n">
         <v>165.0383872390832</v>
@@ -37010,7 +37010,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K32" t="n">
         <v>565.3795935096416</v>
@@ -37077,10 +37077,10 @@
         <v>746.8144420202834</v>
       </c>
       <c r="M32" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N32" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O32" t="n">
         <v>678.9865331623262</v>
@@ -37092,7 +37092,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682952</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>55.41971111405289</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>687.6609588258071</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>743.0806699398599</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>732.8686174635598</v>
+        <v>732.8686174635599</v>
       </c>
       <c r="P33" t="n">
         <v>584.8767928905686</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K34" t="n">
         <v>165.0383872390832</v>
@@ -37247,7 +37247,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K35" t="n">
         <v>565.3795935096416</v>
@@ -37314,10 +37314,10 @@
         <v>746.8144420202834</v>
       </c>
       <c r="M35" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N35" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O35" t="n">
         <v>678.9865331623262</v>
@@ -37329,7 +37329,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682952</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>279.8033285417088</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.54713057581764</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K37" t="n">
         <v>165.0383872390832</v>
@@ -37484,7 +37484,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>746.8144420202834</v>
       </c>
       <c r="M38" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N38" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O38" t="n">
         <v>678.9865331623262</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.54713057581764</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K40" t="n">
         <v>165.0383872390832</v>
@@ -37721,7 +37721,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R41" t="n">
-        <v>51.72383635682869</v>
+        <v>51.72383635682952</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K42" t="n">
         <v>475.2064198543362</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>314.2309885958237</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q42" t="n">
         <v>365.0745974817615</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.54713057581764</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K43" t="n">
         <v>165.0383872390832</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>275.2219065228601</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>687.6609588258071</v>
       </c>
       <c r="M45" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>732.8686174635599</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>279.8033285417088</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K46" t="n">
         <v>165.0383872390832</v>
